--- a/ONCHO/Impact Assessments/Congo/2023/cg_oncho_oem_202310_1_site_dbs.xlsx
+++ b/ONCHO/Impact Assessments/Congo/2023/cg_oncho_oem_202310_1_site_dbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Congo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C8E8F-82C6-4B19-8250-E09581949606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD7609-26D9-4A76-92B0-45203B6FF287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="293">
   <si>
     <t>type</t>
   </si>
@@ -121,18 +121,9 @@
     <t>region_list = ${c_region}</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>c_cluster_name</t>
   </si>
   <si>
-    <t>c_cluster_id</t>
-  </si>
-  <si>
-    <t>Entrer le code du site</t>
-  </si>
-  <si>
     <t>select_one gps_method</t>
   </si>
   <si>
@@ -223,36 +214,12 @@
     <t>${consent} = 'Oui' and ${add_participant} = 'Oui'</t>
   </si>
   <si>
-    <t>select_one ID_method</t>
-  </si>
-  <si>
     <t>ID_method</t>
   </si>
   <si>
-    <t>How will the individual's unique ID be generated?</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>BarcodeID</t>
-  </si>
-  <si>
-    <t>Veuillez scanner le QR code</t>
-  </si>
-  <si>
-    <t>${consent} = 'Oui' and ${ID_method} = 'Scanner' and ${add_participant} = 'Oui'</t>
-  </si>
-  <si>
-    <t>GenerateID</t>
-  </si>
-  <si>
     <t>Veuillez enregistrer le code d'identification unique suivant pour le répondant sur une liste distincte et sur chaque test de diagnostic administré</t>
   </si>
   <si>
-    <t>${consent} = 'Oui' and ${ID_method} = 'Automatique'  and ${add_participant} = 'Oui'</t>
-  </si>
-  <si>
     <t>age_yrs</t>
   </si>
   <si>
@@ -457,24 +424,6 @@
     <t>Fils ou fille</t>
   </si>
   <si>
-    <t>. &gt;= 18</t>
-  </si>
-  <si>
-    <t>Doit être plus de 18 ans</t>
-  </si>
-  <si>
-    <t>Collecte de DBS chez les adultes (18 ans et plus)</t>
-  </si>
-  <si>
-    <t>L'âge doit être 18 ans et plus</t>
-  </si>
-  <si>
-    <t>cg_oncho_oem_202310_1_site_dbs</t>
-  </si>
-  <si>
-    <t>(2023 Oct) ONCHO - 1. Fiche DBS</t>
-  </si>
-  <si>
     <t>Brazzaville</t>
   </si>
   <si>
@@ -859,9 +808,6 @@
     <t>Q. 22 Dahomey Zone 7</t>
   </si>
   <si>
-    <t>select_one cluster_list</t>
-  </si>
-  <si>
     <t>cluster_list</t>
   </si>
   <si>
@@ -946,16 +892,28 @@
     <t>select_one health_area_list</t>
   </si>
   <si>
-    <t>Sélectionner un site/village</t>
-  </si>
-  <si>
-    <t>cluster_list = ${c_cluster_name}</t>
-  </si>
-  <si>
     <t>health_area_list = ${c_health_area}</t>
   </si>
   <si>
-    <t>select_one cluster_list_id</t>
+    <t>L'âge doit être entre 5 et 9 ans</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 9</t>
+  </si>
+  <si>
+    <t>Collecte de DBS chez les adultes</t>
+  </si>
+  <si>
+    <t>code_id</t>
+  </si>
+  <si>
+    <t>(2023 Oct) ONCHO - 1. Fiche DBS V3</t>
+  </si>
+  <si>
+    <t>cg_oncho_oem_202310_1_site_dbs_v3</t>
+  </si>
+  <si>
+    <t>Entrer un site/village</t>
   </si>
 </sst>
 </file>
@@ -1407,13 +1365,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1552,13 +1510,13 @@
     </row>
     <row r="5" spans="1:14" s="14" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D5" s="18"/>
       <c r="G5" s="18"/>
@@ -1570,18 +1528,18 @@
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="14" customFormat="1">
       <c r="A6" s="14" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="18"/>
@@ -1593,42 +1551,31 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
-        <v>304</v>
-      </c>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>20</v>
@@ -1636,22 +1583,22 @@
     </row>
     <row r="9" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1661,20 +1608,20 @@
     </row>
     <row r="10" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18" t="s">
@@ -1686,20 +1633,20 @@
     </row>
     <row r="11" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18" t="s">
@@ -1711,13 +1658,13 @@
     </row>
     <row r="12" spans="1:14" s="14" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1734,26 +1681,26 @@
     </row>
     <row r="13" spans="1:14" s="14" customFormat="1">
       <c r="A13" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="18"/>
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:14" s="14" customFormat="1">
       <c r="A14" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="18"/>
       <c r="J14" s="18" t="s">
@@ -1762,35 +1709,35 @@
     </row>
     <row r="15" spans="1:14" s="14" customFormat="1">
       <c r="A15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="C15" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="18"/>
       <c r="H15" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="14" customFormat="1">
+    <row r="16" spans="1:14" s="14" customFormat="1" ht="47.25">
       <c r="A16" s="14" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>63</v>
+        <v>289</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D16" s="18"/>
       <c r="H16" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J16" s="18" t="s">
         <v>20</v>
@@ -1798,35 +1745,35 @@
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1">
       <c r="A17" s="14" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D17" s="18"/>
       <c r="H17" s="14" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="47.25">
+    <row r="18" spans="1:10" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D18" s="18"/>
       <c r="H18" s="14" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>20</v>
@@ -1834,17 +1781,23 @@
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="D19" s="18"/>
+      <c r="F19" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>286</v>
+      </c>
       <c r="H19" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>20</v>
@@ -1852,17 +1805,17 @@
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1">
       <c r="A20" s="14" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D20" s="18"/>
       <c r="H20" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>20</v>
@@ -1870,43 +1823,35 @@
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1">
       <c r="A21" s="14" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>143</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D21" s="18"/>
       <c r="H21" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="47.25">
       <c r="A22" s="14" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="D22" s="18"/>
       <c r="H22" s="14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>20</v>
@@ -1914,156 +1859,120 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="D23" s="18"/>
+      <c r="G23" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H23" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="47.25">
+    <row r="24" spans="1:10" s="14" customFormat="1">
       <c r="A24" s="14" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="18"/>
       <c r="H24" s="14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1">
-      <c r="A25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="G25" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="31.5">
       <c r="A26" s="14" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D26" s="18"/>
       <c r="H26" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="31.5">
+    <row r="27" spans="1:10" s="14" customFormat="1">
+      <c r="A27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="H27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="H28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="H29" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" s="14" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>90</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:10" s="14" customFormat="1">
-      <c r="A32" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" s="14" customFormat="1">
-      <c r="A33" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,8 +1985,8 @@
   <dimension ref="A1:G284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:G1"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84:F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2092,7 +2001,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2101,335 +2010,335 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1">
       <c r="A21" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1">
       <c r="A26" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1">
       <c r="A27" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -2439,26 +2348,26 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="10"/>
@@ -2471,2112 +2380,2112 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E36" s="10"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C70" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E70" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E71" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B72" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E74" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E75" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="E77" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E79" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E80" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E81" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="15" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" t="s">
         <v>231</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F86" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F87" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F88" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F89" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="F90" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C91" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F91" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B94" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F94" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C102" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F102" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F103" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="F104" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C105" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F105" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F108" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F109" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
         <v>275</v>
       </c>
-      <c r="B110" t="s">
-        <v>293</v>
-      </c>
       <c r="C110" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F110" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="F111" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F112" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C113" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F113" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B114" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F114" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B117" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C117" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F117" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C118" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="F118" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C119" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F122" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C126" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C127" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F129" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F130" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C131" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F132" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B134" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C135" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F135" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B136" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F136" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F137" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="F138" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B139" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C140" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F141" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C142" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F142" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B143" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F143" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F144" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F145" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F146" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F147" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F148" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C150" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F150" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C151" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F151" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C152" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F152" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C153" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F153" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B154" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="F154" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C155" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F155" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F156" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F157" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="F158" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F159" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B160" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C160" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F160" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B161" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C161" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F161" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B162" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C162" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F162" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F163" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B164" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C164" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="F164" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F165" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C166" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F166" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F167" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C168" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C169" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F169" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F170" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B171" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F171" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B172" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C172" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F173" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F174" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B176" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C176" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F176" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B177" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C177" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F177" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B178" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F178" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F179" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F180" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C181" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F181" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B182" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F182" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="15" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C183" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F183" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B185">
         <v>101</v>
@@ -4585,12 +4494,12 @@
         <v>101</v>
       </c>
       <c r="G185" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B186">
         <v>102</v>
@@ -4599,12 +4508,12 @@
         <v>102</v>
       </c>
       <c r="G186" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B187">
         <v>103</v>
@@ -4613,12 +4522,12 @@
         <v>103</v>
       </c>
       <c r="G187" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B188">
         <v>104</v>
@@ -4627,12 +4536,12 @@
         <v>104</v>
       </c>
       <c r="G188" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B189">
         <v>105</v>
@@ -4641,12 +4550,12 @@
         <v>105</v>
       </c>
       <c r="G189" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B190">
         <v>106</v>
@@ -4655,12 +4564,12 @@
         <v>106</v>
       </c>
       <c r="G190" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B191">
         <v>107</v>
@@ -4669,12 +4578,12 @@
         <v>107</v>
       </c>
       <c r="G191" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B192">
         <v>108</v>
@@ -4683,12 +4592,12 @@
         <v>108</v>
       </c>
       <c r="G192" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B193">
         <v>109</v>
@@ -4697,12 +4606,12 @@
         <v>109</v>
       </c>
       <c r="G193" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B194">
         <v>110</v>
@@ -4711,12 +4620,12 @@
         <v>110</v>
       </c>
       <c r="G194" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B195">
         <v>111</v>
@@ -4725,12 +4634,12 @@
         <v>111</v>
       </c>
       <c r="G195" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B196">
         <v>112</v>
@@ -4739,12 +4648,12 @@
         <v>112</v>
       </c>
       <c r="G196" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B197">
         <v>113</v>
@@ -4753,12 +4662,12 @@
         <v>113</v>
       </c>
       <c r="G197" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B198">
         <v>114</v>
@@ -4767,12 +4676,12 @@
         <v>114</v>
       </c>
       <c r="G198" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B199">
         <v>115</v>
@@ -4781,12 +4690,12 @@
         <v>115</v>
       </c>
       <c r="G199" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B200">
         <v>116</v>
@@ -4795,12 +4704,12 @@
         <v>116</v>
       </c>
       <c r="G200" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B201">
         <v>117</v>
@@ -4809,12 +4718,12 @@
         <v>117</v>
       </c>
       <c r="G201" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B202">
         <v>118</v>
@@ -4823,12 +4732,12 @@
         <v>118</v>
       </c>
       <c r="G202" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B203">
         <v>119</v>
@@ -4837,12 +4746,12 @@
         <v>119</v>
       </c>
       <c r="G203" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B204">
         <v>120</v>
@@ -4851,12 +4760,12 @@
         <v>120</v>
       </c>
       <c r="G204" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B205">
         <v>121</v>
@@ -4865,12 +4774,12 @@
         <v>121</v>
       </c>
       <c r="G205" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B206">
         <v>122</v>
@@ -4879,12 +4788,12 @@
         <v>122</v>
       </c>
       <c r="G206" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B207">
         <v>123</v>
@@ -4893,12 +4802,12 @@
         <v>123</v>
       </c>
       <c r="G207" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B208">
         <v>124</v>
@@ -4907,12 +4816,12 @@
         <v>124</v>
       </c>
       <c r="G208" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B209">
         <v>125</v>
@@ -4921,12 +4830,12 @@
         <v>125</v>
       </c>
       <c r="G209" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B210">
         <v>126</v>
@@ -4935,12 +4844,12 @@
         <v>126</v>
       </c>
       <c r="G210" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B211">
         <v>127</v>
@@ -4949,12 +4858,12 @@
         <v>127</v>
       </c>
       <c r="G211" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B212">
         <v>128</v>
@@ -4963,12 +4872,12 @@
         <v>128</v>
       </c>
       <c r="G212" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B213">
         <v>129</v>
@@ -4977,12 +4886,12 @@
         <v>129</v>
       </c>
       <c r="G213" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B214">
         <v>130</v>
@@ -4991,12 +4900,12 @@
         <v>130</v>
       </c>
       <c r="G214" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B215">
         <v>131</v>
@@ -5005,12 +4914,12 @@
         <v>131</v>
       </c>
       <c r="G215" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B216">
         <v>132</v>
@@ -5019,12 +4928,12 @@
         <v>132</v>
       </c>
       <c r="G216" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B217">
         <v>133</v>
@@ -5033,12 +4942,12 @@
         <v>133</v>
       </c>
       <c r="G217" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B218">
         <v>134</v>
@@ -5047,12 +4956,12 @@
         <v>134</v>
       </c>
       <c r="G218" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B219">
         <v>135</v>
@@ -5061,12 +4970,12 @@
         <v>135</v>
       </c>
       <c r="G219" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B220">
         <v>136</v>
@@ -5075,12 +4984,12 @@
         <v>136</v>
       </c>
       <c r="G220" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B221">
         <v>137</v>
@@ -5089,12 +4998,12 @@
         <v>137</v>
       </c>
       <c r="G221" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B222">
         <v>138</v>
@@ -5103,12 +5012,12 @@
         <v>138</v>
       </c>
       <c r="G222" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B223">
         <v>139</v>
@@ -5117,12 +5026,12 @@
         <v>139</v>
       </c>
       <c r="G223" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B224">
         <v>140</v>
@@ -5131,12 +5040,12 @@
         <v>140</v>
       </c>
       <c r="G224" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B225">
         <v>141</v>
@@ -5145,12 +5054,12 @@
         <v>141</v>
       </c>
       <c r="G225" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B226">
         <v>142</v>
@@ -5159,12 +5068,12 @@
         <v>142</v>
       </c>
       <c r="G226" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B227">
         <v>143</v>
@@ -5173,12 +5082,12 @@
         <v>143</v>
       </c>
       <c r="G227" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B228">
         <v>144</v>
@@ -5187,12 +5096,12 @@
         <v>144</v>
       </c>
       <c r="G228" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B229">
         <v>145</v>
@@ -5201,12 +5110,12 @@
         <v>145</v>
       </c>
       <c r="G229" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B230">
         <v>146</v>
@@ -5215,12 +5124,12 @@
         <v>146</v>
       </c>
       <c r="G230" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B231">
         <v>147</v>
@@ -5229,12 +5138,12 @@
         <v>147</v>
       </c>
       <c r="G231" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B232">
         <v>148</v>
@@ -5243,12 +5152,12 @@
         <v>148</v>
       </c>
       <c r="G232" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B233">
         <v>149</v>
@@ -5257,12 +5166,12 @@
         <v>149</v>
       </c>
       <c r="G233" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B234">
         <v>150</v>
@@ -5271,12 +5180,12 @@
         <v>150</v>
       </c>
       <c r="G234" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B235">
         <v>151</v>
@@ -5285,12 +5194,12 @@
         <v>151</v>
       </c>
       <c r="G235" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B236">
         <v>152</v>
@@ -5299,12 +5208,12 @@
         <v>152</v>
       </c>
       <c r="G236" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B237">
         <v>153</v>
@@ -5313,12 +5222,12 @@
         <v>153</v>
       </c>
       <c r="G237" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B238">
         <v>154</v>
@@ -5327,12 +5236,12 @@
         <v>154</v>
       </c>
       <c r="G238" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B239">
         <v>155</v>
@@ -5341,12 +5250,12 @@
         <v>155</v>
       </c>
       <c r="G239" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B240">
         <v>156</v>
@@ -5355,12 +5264,12 @@
         <v>156</v>
       </c>
       <c r="G240" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B241">
         <v>157</v>
@@ -5369,12 +5278,12 @@
         <v>157</v>
       </c>
       <c r="G241" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B242">
         <v>158</v>
@@ -5383,12 +5292,12 @@
         <v>158</v>
       </c>
       <c r="G242" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B243">
         <v>159</v>
@@ -5397,12 +5306,12 @@
         <v>159</v>
       </c>
       <c r="G243" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B244">
         <v>160</v>
@@ -5411,12 +5320,12 @@
         <v>160</v>
       </c>
       <c r="G244" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B245">
         <v>161</v>
@@ -5425,12 +5334,12 @@
         <v>161</v>
       </c>
       <c r="G245" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B246">
         <v>162</v>
@@ -5439,12 +5348,12 @@
         <v>162</v>
       </c>
       <c r="G246" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B247">
         <v>163</v>
@@ -5453,12 +5362,12 @@
         <v>163</v>
       </c>
       <c r="G247" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B248">
         <v>164</v>
@@ -5467,12 +5376,12 @@
         <v>164</v>
       </c>
       <c r="G248" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B249">
         <v>165</v>
@@ -5481,12 +5390,12 @@
         <v>165</v>
       </c>
       <c r="G249" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B250">
         <v>166</v>
@@ -5495,12 +5404,12 @@
         <v>166</v>
       </c>
       <c r="G250" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B251">
         <v>167</v>
@@ -5509,12 +5418,12 @@
         <v>167</v>
       </c>
       <c r="G251" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B252">
         <v>168</v>
@@ -5523,12 +5432,12 @@
         <v>168</v>
       </c>
       <c r="G252" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B253">
         <v>169</v>
@@ -5537,12 +5446,12 @@
         <v>169</v>
       </c>
       <c r="G253" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B254">
         <v>170</v>
@@ -5551,12 +5460,12 @@
         <v>170</v>
       </c>
       <c r="G254" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B255">
         <v>171</v>
@@ -5565,12 +5474,12 @@
         <v>171</v>
       </c>
       <c r="G255" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B256">
         <v>172</v>
@@ -5579,12 +5488,12 @@
         <v>172</v>
       </c>
       <c r="G256" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B257">
         <v>173</v>
@@ -5593,12 +5502,12 @@
         <v>173</v>
       </c>
       <c r="G257" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>174</v>
@@ -5607,12 +5516,12 @@
         <v>174</v>
       </c>
       <c r="G258" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B259">
         <v>175</v>
@@ -5621,12 +5530,12 @@
         <v>175</v>
       </c>
       <c r="G259" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B260">
         <v>176</v>
@@ -5635,12 +5544,12 @@
         <v>176</v>
       </c>
       <c r="G260" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B261">
         <v>177</v>
@@ -5649,12 +5558,12 @@
         <v>177</v>
       </c>
       <c r="G261" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B262">
         <v>178</v>
@@ -5663,12 +5572,12 @@
         <v>178</v>
       </c>
       <c r="G262" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B263">
         <v>179</v>
@@ -5677,12 +5586,12 @@
         <v>179</v>
       </c>
       <c r="G263" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B264">
         <v>180</v>
@@ -5691,12 +5600,12 @@
         <v>180</v>
       </c>
       <c r="G264" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B265">
         <v>181</v>
@@ -5705,12 +5614,12 @@
         <v>181</v>
       </c>
       <c r="G265" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B266">
         <v>182</v>
@@ -5719,12 +5628,12 @@
         <v>182</v>
       </c>
       <c r="G266" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B267">
         <v>183</v>
@@ -5733,12 +5642,12 @@
         <v>183</v>
       </c>
       <c r="G267" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B268">
         <v>184</v>
@@ -5747,12 +5656,12 @@
         <v>184</v>
       </c>
       <c r="G268" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B269">
         <v>185</v>
@@ -5761,12 +5670,12 @@
         <v>185</v>
       </c>
       <c r="G269" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B270">
         <v>186</v>
@@ -5775,12 +5684,12 @@
         <v>186</v>
       </c>
       <c r="G270" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B271">
         <v>187</v>
@@ -5789,12 +5698,12 @@
         <v>187</v>
       </c>
       <c r="G271" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B272">
         <v>188</v>
@@ -5803,12 +5712,12 @@
         <v>188</v>
       </c>
       <c r="G272" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B273">
         <v>189</v>
@@ -5817,12 +5726,12 @@
         <v>189</v>
       </c>
       <c r="G273" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B274">
         <v>190</v>
@@ -5831,12 +5740,12 @@
         <v>190</v>
       </c>
       <c r="G274" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B275">
         <v>191</v>
@@ -5845,12 +5754,12 @@
         <v>191</v>
       </c>
       <c r="G275" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B276">
         <v>192</v>
@@ -5859,12 +5768,12 @@
         <v>192</v>
       </c>
       <c r="G276" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B277">
         <v>193</v>
@@ -5873,12 +5782,12 @@
         <v>193</v>
       </c>
       <c r="G277" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B278">
         <v>194</v>
@@ -5887,12 +5796,12 @@
         <v>194</v>
       </c>
       <c r="G278" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B279">
         <v>195</v>
@@ -5901,12 +5810,12 @@
         <v>195</v>
       </c>
       <c r="G279" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B280">
         <v>196</v>
@@ -5915,12 +5824,12 @@
         <v>196</v>
       </c>
       <c r="G280" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B281">
         <v>197</v>
@@ -5929,12 +5838,12 @@
         <v>197</v>
       </c>
       <c r="G281" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B282">
         <v>198</v>
@@ -5943,12 +5852,12 @@
         <v>198</v>
       </c>
       <c r="G282" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B283">
         <v>199</v>
@@ -5957,12 +5866,12 @@
         <v>199</v>
       </c>
       <c r="G283" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="15" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B284">
         <v>200</v>
@@ -5971,7 +5880,7 @@
         <v>200</v>
       </c>
       <c r="G284" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5987,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6000,24 +5909,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Congo/2023/cg_oncho_oem_202310_1_site_dbs.xlsx
+++ b/ONCHO/Impact Assessments/Congo/2023/cg_oncho_oem_202310_1_site_dbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Congo\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD7609-26D9-4A76-92B0-45203B6FF287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC6B05D-346A-4F9D-A1ED-C06E3C29364D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="292">
   <si>
     <t>type</t>
   </si>
@@ -349,12 +349,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>filiation</t>
-  </si>
-  <si>
-    <t>Filiation</t>
-  </si>
-  <si>
     <t>Chef de famille/ménage</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>filiations</t>
   </si>
   <si>
-    <t>select_one filiations</t>
-  </si>
-  <si>
     <t>1=agriculteur</t>
   </si>
   <si>
@@ -901,19 +892,25 @@
     <t>. &gt;= 5 and . &lt;= 9</t>
   </si>
   <si>
+    <t>code_id</t>
+  </si>
+  <si>
+    <t>Entrer un site/village</t>
+  </si>
+  <si>
+    <t>(2023 Oct) ONCHO - 1. Fiche DBS V4.1</t>
+  </si>
+  <si>
+    <t>cg_oncho_oem_202310_1_site_dbs_v4_1</t>
+  </si>
+  <si>
     <t>Collecte de DBS chez les adultes</t>
   </si>
   <si>
-    <t>code_id</t>
-  </si>
-  <si>
-    <t>(2023 Oct) ONCHO - 1. Fiche DBS V3</t>
-  </si>
-  <si>
-    <t>cg_oncho_oem_202310_1_site_dbs_v3</t>
-  </si>
-  <si>
-    <t>Entrer un site/village</t>
+    <t>Le format est incorrect. Exemple d'un code Mak_0001</t>
+  </si>
+  <si>
+    <t>regex(.,'^[A-Z]{1}[a-z]{2}-[0-9]{4}$')</t>
   </si>
 </sst>
 </file>
@@ -1365,13 +1362,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1510,13 +1507,13 @@
     </row>
     <row r="5" spans="1:14" s="14" customFormat="1">
       <c r="A5" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="18"/>
       <c r="G5" s="18"/>
@@ -1528,7 +1525,7 @@
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="14" customFormat="1">
@@ -1539,7 +1536,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D6" s="18"/>
       <c r="G6" s="18"/>
@@ -1551,7 +1548,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1">
@@ -1727,15 +1724,21 @@
     </row>
     <row r="16" spans="1:14" s="14" customFormat="1" ht="47.25">
       <c r="A16" s="14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>290</v>
+      </c>
       <c r="H16" s="14" t="s">
         <v>58</v>
       </c>
@@ -1745,13 +1748,13 @@
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1">
       <c r="A17" s="14" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D17" s="18"/>
       <c r="H17" s="14" t="s">
@@ -1763,15 +1766,21 @@
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1">
       <c r="A18" s="14" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D18" s="18"/>
+      <c r="F18" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="H18" s="14" t="s">
         <v>58</v>
       </c>
@@ -1781,21 +1790,15 @@
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1">
       <c r="A19" s="14" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="F19" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="H19" s="14" t="s">
         <v>58</v>
       </c>
@@ -1805,53 +1808,56 @@
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1">
       <c r="A20" s="14" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>127</v>
+        <v>289</v>
       </c>
       <c r="D20" s="18"/>
       <c r="H20" s="14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="47.25">
       <c r="A21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="D21" s="18"/>
       <c r="H21" s="14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="47.25">
+    <row r="22" spans="1:10" s="14" customFormat="1">
       <c r="A22" s="14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="18"/>
+      <c r="G22" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="H22" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>20</v>
@@ -1859,18 +1865,15 @@
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1">
       <c r="A23" s="14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" s="18"/>
-      <c r="G23" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="H23" s="14" t="s">
         <v>71</v>
       </c>
@@ -1878,37 +1881,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1">
-      <c r="A24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="H24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="18" t="s">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="31.5">
+      <c r="A25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="H25" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="31.5">
+    <row r="26" spans="1:10" s="14" customFormat="1">
       <c r="A26" s="14" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="18"/>
       <c r="H26" s="14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="J26" s="18" t="s">
         <v>20</v>
@@ -1916,67 +1919,49 @@
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1">
       <c r="A27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="H27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="D28" s="18"/>
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>79</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" s="14" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1">
-      <c r="A31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2016,10 +2001,10 @@
         <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2128,217 +2113,217 @@
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1">
       <c r="A17" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1">
       <c r="A19" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1">
       <c r="A21" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1">
       <c r="A23" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1">
       <c r="A24" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1">
       <c r="A26" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1">
       <c r="A27" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -2351,10 +2336,10 @@
         <v>87</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="10"/>
@@ -2383,13 +2368,13 @@
         <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -2398,13 +2383,13 @@
         <v>98</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -2413,13 +2398,13 @@
         <v>98</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -2428,13 +2413,13 @@
         <v>98</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -2443,10 +2428,10 @@
         <v>98</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>97</v>
@@ -2455,2037 +2440,2037 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E70" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F94" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F97" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F101" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F102" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F103" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F106" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C108" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F108" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F109" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F110" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F113" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F114" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C118" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" t="s">
         <v>257</v>
       </c>
-      <c r="B119" t="s">
-        <v>260</v>
-      </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B122" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F135" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F136" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F137" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F138" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F141" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F142" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F143" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C144" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F144" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C145" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F145" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F146" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C147" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F147" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C148" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F148" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C150" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F150" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B151" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C151" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F151" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B152" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C152" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F152" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C153" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F153" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C154" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F154" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B155" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C155" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F155" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C156" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F156" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B157" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C157" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F157" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C158" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F158" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C159" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F159" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C160" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F160" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F161" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C162" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F162" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F163" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B164" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C164" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F164" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C165" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F165" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F166" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C167" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F167" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C168" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F168" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B169" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C169" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F169" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F170" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C171" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F171" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B172" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C172" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F172" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B173" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C173" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F173" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F174" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F175" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C176" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B177" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C177" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F177" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F178" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C179" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F179" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B180" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C180" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F180" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B181" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C181" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F181" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F182" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F183" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B185">
         <v>101</v>
@@ -4494,12 +4479,12 @@
         <v>101</v>
       </c>
       <c r="G185" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B186">
         <v>102</v>
@@ -4508,12 +4493,12 @@
         <v>102</v>
       </c>
       <c r="G186" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B187">
         <v>103</v>
@@ -4522,12 +4507,12 @@
         <v>103</v>
       </c>
       <c r="G187" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B188">
         <v>104</v>
@@ -4536,12 +4521,12 @@
         <v>104</v>
       </c>
       <c r="G188" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B189">
         <v>105</v>
@@ -4550,12 +4535,12 @@
         <v>105</v>
       </c>
       <c r="G189" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B190">
         <v>106</v>
@@ -4564,12 +4549,12 @@
         <v>106</v>
       </c>
       <c r="G190" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B191">
         <v>107</v>
@@ -4578,12 +4563,12 @@
         <v>107</v>
       </c>
       <c r="G191" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B192">
         <v>108</v>
@@ -4592,12 +4577,12 @@
         <v>108</v>
       </c>
       <c r="G192" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B193">
         <v>109</v>
@@ -4606,12 +4591,12 @@
         <v>109</v>
       </c>
       <c r="G193" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B194">
         <v>110</v>
@@ -4620,12 +4605,12 @@
         <v>110</v>
       </c>
       <c r="G194" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B195">
         <v>111</v>
@@ -4634,12 +4619,12 @@
         <v>111</v>
       </c>
       <c r="G195" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B196">
         <v>112</v>
@@ -4648,12 +4633,12 @@
         <v>112</v>
       </c>
       <c r="G196" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B197">
         <v>113</v>
@@ -4662,12 +4647,12 @@
         <v>113</v>
       </c>
       <c r="G197" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B198">
         <v>114</v>
@@ -4676,12 +4661,12 @@
         <v>114</v>
       </c>
       <c r="G198" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B199">
         <v>115</v>
@@ -4690,12 +4675,12 @@
         <v>115</v>
       </c>
       <c r="G199" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B200">
         <v>116</v>
@@ -4704,12 +4689,12 @@
         <v>116</v>
       </c>
       <c r="G200" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B201">
         <v>117</v>
@@ -4718,12 +4703,12 @@
         <v>117</v>
       </c>
       <c r="G201" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B202">
         <v>118</v>
@@ -4732,12 +4717,12 @@
         <v>118</v>
       </c>
       <c r="G202" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B203">
         <v>119</v>
@@ -4746,12 +4731,12 @@
         <v>119</v>
       </c>
       <c r="G203" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B204">
         <v>120</v>
@@ -4760,12 +4745,12 @@
         <v>120</v>
       </c>
       <c r="G204" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B205">
         <v>121</v>
@@ -4774,12 +4759,12 @@
         <v>121</v>
       </c>
       <c r="G205" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B206">
         <v>122</v>
@@ -4788,12 +4773,12 @@
         <v>122</v>
       </c>
       <c r="G206" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B207">
         <v>123</v>
@@ -4802,12 +4787,12 @@
         <v>123</v>
       </c>
       <c r="G207" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B208">
         <v>124</v>
@@ -4816,12 +4801,12 @@
         <v>124</v>
       </c>
       <c r="G208" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B209">
         <v>125</v>
@@ -4830,12 +4815,12 @@
         <v>125</v>
       </c>
       <c r="G209" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B210">
         <v>126</v>
@@ -4844,12 +4829,12 @@
         <v>126</v>
       </c>
       <c r="G210" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B211">
         <v>127</v>
@@ -4858,12 +4843,12 @@
         <v>127</v>
       </c>
       <c r="G211" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B212">
         <v>128</v>
@@ -4872,12 +4857,12 @@
         <v>128</v>
       </c>
       <c r="G212" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B213">
         <v>129</v>
@@ -4886,12 +4871,12 @@
         <v>129</v>
       </c>
       <c r="G213" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B214">
         <v>130</v>
@@ -4900,12 +4885,12 @@
         <v>130</v>
       </c>
       <c r="G214" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B215">
         <v>131</v>
@@ -4914,12 +4899,12 @@
         <v>131</v>
       </c>
       <c r="G215" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B216">
         <v>132</v>
@@ -4928,12 +4913,12 @@
         <v>132</v>
       </c>
       <c r="G216" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B217">
         <v>133</v>
@@ -4942,12 +4927,12 @@
         <v>133</v>
       </c>
       <c r="G217" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B218">
         <v>134</v>
@@ -4956,12 +4941,12 @@
         <v>134</v>
       </c>
       <c r="G218" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B219">
         <v>135</v>
@@ -4970,12 +4955,12 @@
         <v>135</v>
       </c>
       <c r="G219" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B220">
         <v>136</v>
@@ -4984,12 +4969,12 @@
         <v>136</v>
       </c>
       <c r="G220" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B221">
         <v>137</v>
@@ -4998,12 +4983,12 @@
         <v>137</v>
       </c>
       <c r="G221" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B222">
         <v>138</v>
@@ -5012,12 +4997,12 @@
         <v>138</v>
       </c>
       <c r="G222" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B223">
         <v>139</v>
@@ -5026,12 +5011,12 @@
         <v>139</v>
       </c>
       <c r="G223" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B224">
         <v>140</v>
@@ -5040,12 +5025,12 @@
         <v>140</v>
       </c>
       <c r="G224" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B225">
         <v>141</v>
@@ -5054,12 +5039,12 @@
         <v>141</v>
       </c>
       <c r="G225" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B226">
         <v>142</v>
@@ -5068,12 +5053,12 @@
         <v>142</v>
       </c>
       <c r="G226" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B227">
         <v>143</v>
@@ -5082,12 +5067,12 @@
         <v>143</v>
       </c>
       <c r="G227" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B228">
         <v>144</v>
@@ -5096,12 +5081,12 @@
         <v>144</v>
       </c>
       <c r="G228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B229">
         <v>145</v>
@@ -5110,12 +5095,12 @@
         <v>145</v>
       </c>
       <c r="G229" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B230">
         <v>146</v>
@@ -5124,12 +5109,12 @@
         <v>146</v>
       </c>
       <c r="G230" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B231">
         <v>147</v>
@@ -5138,12 +5123,12 @@
         <v>147</v>
       </c>
       <c r="G231" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B232">
         <v>148</v>
@@ -5152,12 +5137,12 @@
         <v>148</v>
       </c>
       <c r="G232" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B233">
         <v>149</v>
@@ -5166,12 +5151,12 @@
         <v>149</v>
       </c>
       <c r="G233" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B234">
         <v>150</v>
@@ -5180,12 +5165,12 @@
         <v>150</v>
       </c>
       <c r="G234" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B235">
         <v>151</v>
@@ -5194,12 +5179,12 @@
         <v>151</v>
       </c>
       <c r="G235" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B236">
         <v>152</v>
@@ -5208,12 +5193,12 @@
         <v>152</v>
       </c>
       <c r="G236" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B237">
         <v>153</v>
@@ -5222,12 +5207,12 @@
         <v>153</v>
       </c>
       <c r="G237" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B238">
         <v>154</v>
@@ -5236,12 +5221,12 @@
         <v>154</v>
       </c>
       <c r="G238" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B239">
         <v>155</v>
@@ -5250,12 +5235,12 @@
         <v>155</v>
       </c>
       <c r="G239" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B240">
         <v>156</v>
@@ -5264,12 +5249,12 @@
         <v>156</v>
       </c>
       <c r="G240" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B241">
         <v>157</v>
@@ -5278,12 +5263,12 @@
         <v>157</v>
       </c>
       <c r="G241" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B242">
         <v>158</v>
@@ -5292,12 +5277,12 @@
         <v>158</v>
       </c>
       <c r="G242" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B243">
         <v>159</v>
@@ -5306,12 +5291,12 @@
         <v>159</v>
       </c>
       <c r="G243" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B244">
         <v>160</v>
@@ -5320,12 +5305,12 @@
         <v>160</v>
       </c>
       <c r="G244" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B245">
         <v>161</v>
@@ -5334,12 +5319,12 @@
         <v>161</v>
       </c>
       <c r="G245" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B246">
         <v>162</v>
@@ -5348,12 +5333,12 @@
         <v>162</v>
       </c>
       <c r="G246" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B247">
         <v>163</v>
@@ -5362,12 +5347,12 @@
         <v>163</v>
       </c>
       <c r="G247" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B248">
         <v>164</v>
@@ -5376,12 +5361,12 @@
         <v>164</v>
       </c>
       <c r="G248" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B249">
         <v>165</v>
@@ -5390,12 +5375,12 @@
         <v>165</v>
       </c>
       <c r="G249" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B250">
         <v>166</v>
@@ -5404,12 +5389,12 @@
         <v>166</v>
       </c>
       <c r="G250" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B251">
         <v>167</v>
@@ -5418,12 +5403,12 @@
         <v>167</v>
       </c>
       <c r="G251" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B252">
         <v>168</v>
@@ -5432,12 +5417,12 @@
         <v>168</v>
       </c>
       <c r="G252" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B253">
         <v>169</v>
@@ -5446,12 +5431,12 @@
         <v>169</v>
       </c>
       <c r="G253" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B254">
         <v>170</v>
@@ -5460,12 +5445,12 @@
         <v>170</v>
       </c>
       <c r="G254" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>171</v>
@@ -5474,12 +5459,12 @@
         <v>171</v>
       </c>
       <c r="G255" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B256">
         <v>172</v>
@@ -5488,12 +5473,12 @@
         <v>172</v>
       </c>
       <c r="G256" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B257">
         <v>173</v>
@@ -5502,12 +5487,12 @@
         <v>173</v>
       </c>
       <c r="G257" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B258">
         <v>174</v>
@@ -5516,12 +5501,12 @@
         <v>174</v>
       </c>
       <c r="G258" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B259">
         <v>175</v>
@@ -5530,12 +5515,12 @@
         <v>175</v>
       </c>
       <c r="G259" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B260">
         <v>176</v>
@@ -5544,12 +5529,12 @@
         <v>176</v>
       </c>
       <c r="G260" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B261">
         <v>177</v>
@@ -5558,12 +5543,12 @@
         <v>177</v>
       </c>
       <c r="G261" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B262">
         <v>178</v>
@@ -5572,12 +5557,12 @@
         <v>178</v>
       </c>
       <c r="G262" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B263">
         <v>179</v>
@@ -5586,12 +5571,12 @@
         <v>179</v>
       </c>
       <c r="G263" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B264">
         <v>180</v>
@@ -5600,12 +5585,12 @@
         <v>180</v>
       </c>
       <c r="G264" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B265">
         <v>181</v>
@@ -5614,12 +5599,12 @@
         <v>181</v>
       </c>
       <c r="G265" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B266">
         <v>182</v>
@@ -5628,12 +5613,12 @@
         <v>182</v>
       </c>
       <c r="G266" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B267">
         <v>183</v>
@@ -5642,12 +5627,12 @@
         <v>183</v>
       </c>
       <c r="G267" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B268">
         <v>184</v>
@@ -5656,12 +5641,12 @@
         <v>184</v>
       </c>
       <c r="G268" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B269">
         <v>185</v>
@@ -5670,12 +5655,12 @@
         <v>185</v>
       </c>
       <c r="G269" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B270">
         <v>186</v>
@@ -5684,12 +5669,12 @@
         <v>186</v>
       </c>
       <c r="G270" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B271">
         <v>187</v>
@@ -5698,12 +5683,12 @@
         <v>187</v>
       </c>
       <c r="G271" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B272">
         <v>188</v>
@@ -5712,12 +5697,12 @@
         <v>188</v>
       </c>
       <c r="G272" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B273">
         <v>189</v>
@@ -5726,12 +5711,12 @@
         <v>189</v>
       </c>
       <c r="G273" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B274">
         <v>190</v>
@@ -5740,12 +5725,12 @@
         <v>190</v>
       </c>
       <c r="G274" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B275">
         <v>191</v>
@@ -5754,12 +5739,12 @@
         <v>191</v>
       </c>
       <c r="G275" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B276">
         <v>192</v>
@@ -5768,12 +5753,12 @@
         <v>192</v>
       </c>
       <c r="G276" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B277">
         <v>193</v>
@@ -5782,12 +5767,12 @@
         <v>193</v>
       </c>
       <c r="G277" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B278">
         <v>194</v>
@@ -5796,12 +5781,12 @@
         <v>194</v>
       </c>
       <c r="G278" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B279">
         <v>195</v>
@@ -5810,12 +5795,12 @@
         <v>195</v>
       </c>
       <c r="G279" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B280">
         <v>196</v>
@@ -5824,12 +5809,12 @@
         <v>196</v>
       </c>
       <c r="G280" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B281">
         <v>197</v>
@@ -5838,12 +5823,12 @@
         <v>197</v>
       </c>
       <c r="G281" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B282">
         <v>198</v>
@@ -5852,12 +5837,12 @@
         <v>198</v>
       </c>
       <c r="G282" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B283">
         <v>199</v>
@@ -5866,12 +5851,12 @@
         <v>199</v>
       </c>
       <c r="G283" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B284">
         <v>200</v>
@@ -5880,7 +5865,7 @@
         <v>200</v>
       </c>
       <c r="G284" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5897,7 +5882,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5920,10 +5905,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
